--- a/MEME_Motif/Motif_Sequence.xlsx
+++ b/MEME_Motif/Motif_Sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="560" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,21 +99,12 @@
     <t>SLCKHLKKMQLHGEGSQDLSTKVHIKALQ</t>
   </si>
   <si>
-    <t>TA2R7_HUMAN_site_1</t>
-  </si>
-  <si>
     <t>SLRRHIRRMQLSATGCRDPSTEAHVRALK</t>
   </si>
   <si>
-    <t>TA2R8_HUMAN_site_1</t>
-  </si>
-  <si>
     <t>SLWRHTKQIKLYATGSRDPSTEVHVRAIK</t>
   </si>
   <si>
-    <t>TA2R9_HUMAN_site_1</t>
-  </si>
-  <si>
     <t>SLVRHTKQIRLHATGFRDPSTEAHMRAIK</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>SLWRHNRQMQSNVTGLRDSNTEAHVKAMK</t>
   </si>
   <si>
-    <t>TA2R3_HUMAN_site_1</t>
-  </si>
-  <si>
     <t>SLGRHTRQMLQNGTSSRDPTTEAHKRAIR</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>SLKRHTLHMGSNATGSNDPSMEAHMGAIK</t>
   </si>
   <si>
-    <t>TA2R4_HUMAN_site_1</t>
-  </si>
-  <si>
     <t>SLRRHIQKMQKNATGFWNPQTEAHVGAMK</t>
   </si>
   <si>
@@ -171,9 +156,6 @@
     <t>SLVRHTRNLKLSSLGSRDSSTEAHRRAMK</t>
   </si>
   <si>
-    <t>TA2R5_HUMAN_site_1</t>
-  </si>
-  <si>
     <t>SLYTHHKKMKVHSAGRRDVRAKAHITALK</t>
   </si>
   <si>
@@ -189,9 +171,6 @@
     <t>SLGRHRKKALLTTSGFREPSVQAHIKALL</t>
   </si>
   <si>
-    <t>TA2R1_HUMAN_site_1</t>
-  </si>
-  <si>
     <t>SLGRHTRQMRNTVAGSRVPGRGAPISALL</t>
   </si>
   <si>
@@ -853,16 +832,53 @@
   </si>
   <si>
     <t>VSHEENITWKFKVSK</t>
+  </si>
+  <si>
+    <t>T2R1_HUMAN_site_1</t>
+  </si>
+  <si>
+    <t>T2R3_HUMAN_site_1</t>
+  </si>
+  <si>
+    <t>T2R4_HUMAN_site_1</t>
+  </si>
+  <si>
+    <t>T2R5_HUMAN_site_1</t>
+  </si>
+  <si>
+    <t>T2R7_HUMAN_site_1</t>
+  </si>
+  <si>
+    <t>T2R8_HUMAN_site_1</t>
+  </si>
+  <si>
+    <t>T2R9_HUMAN_site_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -885,13 +901,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1224,7 +1248,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1266,142 +1290,142 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1412,31 +1436,31 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1447,31 +1471,31 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1482,31 +1506,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1517,206 +1541,206 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K13" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K14" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1727,31 +1751,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1762,31 +1786,31 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1797,31 +1821,31 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J17" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1832,311 +1856,311 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K19" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2146,6 +2170,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/MEME_Motif/Motif_Sequence.xlsx
+++ b/MEME_Motif/Motif_Sequence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -901,8 +901,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -911,11 +969,69 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1248,7 +1364,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1290,772 +1406,772 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="J9" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="K9" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I14" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J14" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K14" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I17" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="J17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:11">
